--- a/biology/Botanique/Hélène_Durand/Hélène_Durand.xlsx
+++ b/biology/Botanique/Hélène_Durand/Hélène_Durand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Durand</t>
+          <t>Hélène_Durand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hélène Durand (9 août 1883 à Watermael-Boitsfort - 4 août 1934 à Uccle) était une illustratrice scientifique belge[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hélène Durand (9 août 1883 à Watermael-Boitsfort - 4 août 1934 à Uccle) était une illustratrice scientifique belge.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Durand</t>
+          <t>Hélène_Durand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est la fille de Théophile Durand, directeur du Jardin botanique de Belgique entre 1901 et 1912[2], et de Sofie Van Eelde.
-Dans sa formation, elle suit des cours en art et en botanique. Elle a ensuite travaillé à l'Institut royal des Sciences Naturelles de Belgique. En 1912, elle est engagée en temps-plein au Jardin Botanique[3], qui se trouve au Chateau de Bouchout, à Meise, au nord de Bruxelles. Elle y a produit des illustrations montrant une grande précision scientifique, incluant des traits au dessin et illustrations pour le musée du bois[2].
-Ses illustrations, non-publiées, des Gymnospermes sont particulièrement remarquables, et révèlent les couleurs subtiles et textures de leurs cones[2]. Elle a consacré plus de 105 heures à son illustration d'un cone d'Abies procera. Beaucoup de ses illustrations ont été publiées dans des revues scientifiques[2].
-Hélène Durand a partagé un appartement avec sa sœur Louise[2]. Elle a souffert d'une affection pulmonaire et ne réagissait pas aux traitements essayés. Un séjour dans la campagne de Keerbergen lui apporta un court répit, et elle décéda la nuit du 4 août 1934[2].
-L'abréviation H.Durand est utilisée pour indiquer Hélène Durand en tant qu'auteur quand elle est nommée en tant que botaniste. Elle a travaillé avec son père sur Sylloge Florae Congolanae[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est la fille de Théophile Durand, directeur du Jardin botanique de Belgique entre 1901 et 1912, et de Sofie Van Eelde.
+Dans sa formation, elle suit des cours en art et en botanique. Elle a ensuite travaillé à l'Institut royal des Sciences Naturelles de Belgique. En 1912, elle est engagée en temps-plein au Jardin Botanique, qui se trouve au Chateau de Bouchout, à Meise, au nord de Bruxelles. Elle y a produit des illustrations montrant une grande précision scientifique, incluant des traits au dessin et illustrations pour le musée du bois.
+Ses illustrations, non-publiées, des Gymnospermes sont particulièrement remarquables, et révèlent les couleurs subtiles et textures de leurs cones. Elle a consacré plus de 105 heures à son illustration d'un cone d'Abies procera. Beaucoup de ses illustrations ont été publiées dans des revues scientifiques.
+Hélène Durand a partagé un appartement avec sa sœur Louise. Elle a souffert d'une affection pulmonaire et ne réagissait pas aux traitements essayés. Un séjour dans la campagne de Keerbergen lui apporta un court répit, et elle décéda la nuit du 4 août 1934.
+L'abréviation H.Durand est utilisée pour indiquer Hélène Durand en tant qu'auteur quand elle est nommée en tant que botaniste. Elle a travaillé avec son père sur Sylloge Florae Congolanae.
 </t>
         </is>
       </c>
